--- a/doc/ue_stat_unit.xlsx
+++ b/doc/ue_stat_unit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C7615CF-FED4-497B-B60D-F654A2E274DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9990A8B6-96EF-4D97-A99C-4DEBB849A4B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="726" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="878" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,13 @@
     <sheet name="Frame耗时原理" sheetId="2" r:id="rId4"/>
     <sheet name="Game耗时原理" sheetId="3" r:id="rId5"/>
     <sheet name="Draw耗时原理" sheetId="4" r:id="rId6"/>
-    <sheet name="RHIT耗时原理" sheetId="6" r:id="rId7"/>
-    <sheet name="GameThread&amp;RenderThread同步" sheetId="7" r:id="rId8"/>
-    <sheet name="GSwapBufferTime" sheetId="9" r:id="rId9"/>
-    <sheet name="问题" sheetId="8" r:id="rId10"/>
+    <sheet name="再谈RenderThread" sheetId="14" r:id="rId7"/>
+    <sheet name="RHIT耗时原理" sheetId="6" r:id="rId8"/>
+    <sheet name="GameThread&amp;RenderThread同步" sheetId="7" r:id="rId9"/>
+    <sheet name="GSwapBufferTime" sheetId="9" r:id="rId10"/>
+    <sheet name="问题" sheetId="8" r:id="rId11"/>
+    <sheet name="计算方式" sheetId="12" r:id="rId12"/>
+    <sheet name="性能" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="275">
   <si>
     <t>UE中使用Stat Unit的实现原理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -628,179 +631,413 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>FTaskGraphInterface::Get().ProcessThreadUntilRequestReturn(RenderThread);</t>
+  </si>
+  <si>
+    <t>初始化时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Word等更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发起渲染</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待渲染结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32 FStatUnitData::DrawStat(FViewport* InViewport, FCanvas* InCanvas, int32 InX, int32 InY)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32 UEngine::RenderStatUnit(UWorld* World, FViewport* Viewport, FCanvas* Canvas, int32 X, int32 Y, const FVector* ViewLocation, const FRotator* ViewRotation)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Render everything.</t>
+  </si>
+  <si>
+    <t>先更新上一帧gameThread时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先更新World之类的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Draw Stat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！这个时候GFrameCounter还没更新，所以不更新这部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新World等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何时设置的？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Increment global frame counter. Once for each engine tick.</t>
+  </si>
+  <si>
+    <t>GFrameCounter++;</t>
+  </si>
+  <si>
+    <t>更新Frame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待RenderThread</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何发起执行的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Tick(Advance) Time for the application and then tick and paint slate application widgets.</t>
+  </si>
+  <si>
+    <t>// We split separate this action from the one above to permit running network replication concurrent with slate widget ticking and painting.</t>
+  </si>
+  <si>
+    <t>if (FSlateApplication::IsInitialized() &amp;&amp; !bIdleMode)</t>
+  </si>
+  <si>
+    <t>FSlateApplication::Get().Tick(ESlateTickType::TimeAndWidgets);</t>
+  </si>
+  <si>
+    <t>计算时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>World等更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新异步Render处理，内部会更新Draw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frame++</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！计算SwapBuffer时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于GWorkingRHIThreadStallTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！这个地方减去了GWorkingRHIThreadStallTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和GetRenderQueryResult有关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个本质上是包含了SwapBuffer的时间的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Calculate gamethread time (excluding idle time)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UWorld* ViewportWorld = ViewportClient-&gt;GetWorld();</t>
+  </si>
+  <si>
+    <t>FCanvas Canvas(this, nullptr, ViewportWorld, ViewportWorld ? ViewportWorld-&gt;FeatureLevel.GetValue() : GMaxRHIFeatureLevel, FCanvas::CDM_DeferDrawing, ViewportClient-&gt;ShouldDPIScaleSceneCanvas() ? ViewportClient-&gt;GetDPIScale() : 1.0f);</t>
+  </si>
+  <si>
+    <t>Canvas.SetRenderTargetRect(FIntRect(0, 0, SizeX, SizeY));</t>
+  </si>
+  <si>
+    <t>// Make sure the Canvas is not rendered upside down</t>
+  </si>
+  <si>
+    <t>Canvas.SetAllowSwitchVerticalAxis(true);</t>
+  </si>
+  <si>
+    <t>ViewportClient-&gt;Draw(this, &amp;Canvas);</t>
+  </si>
+  <si>
+    <t>Canvas.Flush_GameThread();</t>
+  </si>
+  <si>
+    <t>更新Game耗时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渲染到HUD上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！先是上面的时间计算，在渲染到HUD上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GSwapBufferTime = EndTime - StartTime;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stat各项的计算方式都是在原来的基础上每次变换10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这样子变换比较慢，可以看出来具体的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否则就看不清处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有的逻辑耗时：不包含内部的Wait等待时间，其实主要是等到RenderThread的耗时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>void RenderingThreadMain( FEvent* TaskGraphBoundSyncEvent )</t>
-  </si>
-  <si>
-    <t>FTaskGraphInterface::Get().ProcessThreadUntilRequestReturn(RenderThread);</t>
-  </si>
-  <si>
-    <t>初始化时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Word等更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发起渲染</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等待渲染结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int32 FStatUnitData::DrawStat(FViewport* InViewport, FCanvas* InCanvas, int32 InX, int32 InY)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int32 UEngine::RenderStatUnit(UWorld* World, FViewport* Viewport, FCanvas* Canvas, int32 X, int32 Y, const FVector* ViewLocation, const FRotator* ViewRotation)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>// Render everything.</t>
-  </si>
-  <si>
-    <t>先更新上一帧gameThread时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>先更新World之类的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Draw Stat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！！！这个时候GFrameCounter还没更新，所以不更新这部分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新World等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>何时设置的？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>// Increment global frame counter. Once for each engine tick.</t>
-  </si>
-  <si>
-    <t>GFrameCounter++;</t>
-  </si>
-  <si>
-    <t>更新Frame</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等待RenderThread</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何发起执行的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>// Tick(Advance) Time for the application and then tick and paint slate application widgets.</t>
-  </si>
-  <si>
-    <t>// We split separate this action from the one above to permit running network replication concurrent with slate widget ticking and painting.</t>
-  </si>
-  <si>
-    <t>if (FSlateApplication::IsInitialized() &amp;&amp; !bIdleMode)</t>
-  </si>
-  <si>
-    <t>FSlateApplication::Get().Tick(ESlateTickType::TimeAndWidgets);</t>
-  </si>
-  <si>
-    <t>计算时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>World等更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新异步Render处理，内部会更新Draw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Frame++</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！！！计算SwapBuffer时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关于GWorkingRHIThreadStallTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！！！这个地方减去了GWorkingRHIThreadStallTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>和GetRenderQueryResult有关系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这个本质上是包含了SwapBuffer的时间的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>// Calculate gamethread time (excluding idle time)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UWorld* ViewportWorld = ViewportClient-&gt;GetWorld();</t>
-  </si>
-  <si>
-    <t>FCanvas Canvas(this, nullptr, ViewportWorld, ViewportWorld ? ViewportWorld-&gt;FeatureLevel.GetValue() : GMaxRHIFeatureLevel, FCanvas::CDM_DeferDrawing, ViewportClient-&gt;ShouldDPIScaleSceneCanvas() ? ViewportClient-&gt;GetDPIScale() : 1.0f);</t>
-  </si>
-  <si>
-    <t>Canvas.SetRenderTargetRect(FIntRect(0, 0, SizeX, SizeY));</t>
-  </si>
-  <si>
-    <t>// Make sure the Canvas is not rendered upside down</t>
-  </si>
-  <si>
-    <t>Canvas.SetAllowSwitchVerticalAxis(true);</t>
-  </si>
-  <si>
-    <t>ViewportClient-&gt;Draw(this, &amp;Canvas);</t>
-  </si>
-  <si>
-    <t>Canvas.Flush_GameThread();</t>
-  </si>
-  <si>
-    <t>更新Game耗时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>渲染到HUD上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！！！先是上面的时间计算，在渲染到HUD上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GSwapBufferTime = EndTime - StartTime;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本质就是RenderThread一直不停的执行TASK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有TASK的时候WAIT，会增加Wait时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SwapBuffer的时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行每一个TASK的时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常TASK的等待Wait，增加Wait时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待RenderThread的Wait时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常逻辑处理，World-Tick的时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF121212"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用控制台命令</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF121212"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF121212"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>r.ScreenPercentage 10</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF121212"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF121212"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，如果游戏突然加快说明就是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF121212"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>GPU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF121212"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>遇到瓶颈</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（这条命令的作用是修改屏幕分辨率的百分比，10 代表把分辨率的百分比调成10%，分辨率越低意味着需要渲染的像素点越少，减少GPU的负担，如果此时游戏突然加快，就说明之前的瓶颈在GPU上）</t>
+  </si>
+  <si>
+    <t>“~“键 调用控制台命令 输入“r.vsync 0”;</t>
+  </si>
+  <si>
+    <t>关掉垂直同步</t>
+  </si>
+  <si>
+    <t>void FRHICommandList::EndScene()</t>
+  </si>
+  <si>
+    <t>check(IsImmediate() &amp;&amp; IsInRenderingThread());</t>
+  </si>
+  <si>
+    <t>if (Bypass())</t>
+  </si>
+  <si>
+    <t>GetContext().RHIEndScene();</t>
+  </si>
+  <si>
+    <t>return;</t>
+  </si>
+  <si>
+    <t>ALLOC_COMMAND(FRHICommandEndScene)();</t>
+  </si>
+  <si>
+    <t>if (!IsRunningRHIInSeparateThread())</t>
+  </si>
+  <si>
+    <t>// if we aren't running an RHIThread, there is no good reason to buffer this frame advance stuff and that complicates state management, so flush everything out now</t>
+  </si>
+  <si>
+    <t>QUICK_SCOPE_CYCLE_COUNTER(EndScene_Flush);</t>
+  </si>
+  <si>
+    <t>CSV_SCOPED_TIMING_STAT(RHITFlushes, EndScene);</t>
+  </si>
+  <si>
+    <t>FRHICommandListExecutor::GetImmediateCommandList().ImmediateFlush(EImmediateFlushType::FlushRHIThread);</t>
+  </si>
+  <si>
+    <t>void UGameViewportClient::Draw(FViewport* InViewport, FCanvas* SceneCanvas)</t>
+  </si>
+  <si>
+    <t>更新时间等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>World更新等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帧数++</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强制等待RenderThread</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各种更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新Game耗时等信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发起更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异步发起更新指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetRendererModule().BeginRenderingViewFamily(SceneCanvas,&amp;ViewFamily);</t>
+  </si>
+  <si>
+    <t>渲染发起流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体就是异步的发起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RenderViewFamily_RenderThread(RHICmdList, SceneRenderer);</t>
+  </si>
+  <si>
+    <t>渲染线程指令的处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渲染</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SceneRenderer-&gt;Render(RHICmdList);</t>
+  </si>
+  <si>
+    <t>！！！在场景Render之后发起的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一层Pass执行后等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>里面都大量的等待Task操作，Wait</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://zhuanlan.zhihu.com/p/515547548</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -839,6 +1076,47 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF121212"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color rgb="FF121212"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF121212"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF121212"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color rgb="FF121212"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF121212"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -860,11 +1138,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -883,6 +1164,72 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9293A1E7-CA2C-27FA-1719-8C7E06B3DC56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="981075" y="581025"/>
+          <a:ext cx="11572875" cy="5543550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1291,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.2">
@@ -1299,7 +1646,7 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.2">
@@ -1323,10 +1670,10 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.2">
@@ -1343,22 +1690,22 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.2">
@@ -1872,6 +2219,116 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75DBD6BB-303A-4FA5-8EFB-3E783E0B3792}">
+  <dimension ref="B4:P29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P36" sqref="P36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>147</v>
+      </c>
+      <c r="E13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>148</v>
+      </c>
+      <c r="E20" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>98</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E3024F6-E398-4A93-8214-C6BD6CFB0DBD}">
   <dimension ref="B4:B22"/>
   <sheetViews>
@@ -1898,47 +2355,99 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3818C1D5-162E-4DF8-941E-34225AFD3113}">
-  <dimension ref="B4:C10"/>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{470AE8A9-30FC-4B33-8596-A0CE0D002A0A}">
+  <dimension ref="B4:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="4" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>171</v>
+      <c r="B4" s="3" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C5" t="s">
-        <v>172</v>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B10">
+      <c r="B6" s="2">
         <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01379E41-DB28-422F-B51C-2A22CA02A819}">
+  <dimension ref="B4:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:4" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="B4" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3818C1D5-162E-4DF8-941E-34225AFD3113}">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1954,7 +2463,7 @@
   <sheetData>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
@@ -1977,7 +2486,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
@@ -1985,7 +2494,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
@@ -2003,17 +2512,17 @@
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.2">
@@ -2021,7 +2530,7 @@
         <v>4</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.2">
@@ -2074,7 +2583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27FFD449-611C-42F7-BD9A-BAB54C68BF4B}">
   <dimension ref="A2:N65"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
@@ -2364,10 +2873,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD4BD22B-54C9-48B2-8C71-D23D5EBEDFAB}">
-  <dimension ref="A2:S75"/>
+  <dimension ref="A2:S80"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K75" sqref="K75"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2376,378 +2885,407 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C4" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C5" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D10" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>18</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C25" t="s">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C27" s="3" t="s">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C32" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C28" t="s">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C29" t="s">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
         <v>160</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="K34" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B31">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B36">
         <v>1</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C36" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B32">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B37">
         <v>2</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C37" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B33">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B38">
         <v>3</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C38" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B34">
-        <v>4</v>
-      </c>
-      <c r="C34" t="s">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C36" t="s">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B39" s="3">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B44" s="3">
         <v>1</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C44" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="D49" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="E50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="E51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="E52" t="s">
+        <v>76</v>
+      </c>
+      <c r="G52" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="E53" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="E54" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="E55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="F56" t="s">
+        <v>80</v>
+      </c>
+      <c r="G56" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="F57" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="F58" t="s">
+        <v>83</v>
+      </c>
+      <c r="H58" t="s">
+        <v>84</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="E59" t="s">
+        <v>9</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="E60" t="s">
+        <v>11</v>
+      </c>
+      <c r="S60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="E61" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="F62" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="63" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="E63" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E65" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E66" t="s">
+        <v>87</v>
+      </c>
+      <c r="G66" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E67" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D68" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C69" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B71" s="3">
+        <v>2</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C40" t="s">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C72" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C41" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D42" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D43" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D44" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E45" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E46" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E47" t="s">
-        <v>76</v>
-      </c>
-      <c r="G47" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E48" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="E49" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="E50" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="F51" t="s">
-        <v>80</v>
-      </c>
-      <c r="G51" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="F52" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="F53" t="s">
-        <v>83</v>
-      </c>
-      <c r="H53" t="s">
-        <v>84</v>
-      </c>
-      <c r="S53" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="E54" t="s">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C73" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C74" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C75" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D76" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D77" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D78" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C79" t="s">
         <v>9</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="E55" t="s">
-        <v>11</v>
-      </c>
-      <c r="S55" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="E56" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="F57" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="E58" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="E60" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="E61" t="s">
-        <v>87</v>
-      </c>
-      <c r="G61" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="E62" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="D63" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C64" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B66" s="3">
-        <v>2</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C67" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C68" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C69" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C70" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D71" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D72" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D73" t="s">
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C80" t="s">
         <v>223</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C74" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C75" t="s">
-        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -2758,10 +3296,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C5DC98-CE9C-4073-9954-04D8315C122F}">
-  <dimension ref="A2:M81"/>
+  <dimension ref="A2:Q86"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="R42" sqref="R42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2769,366 +3307,401 @@
     <col min="1" max="1" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C4" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C5" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C7" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D9" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D10" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C11" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C12" t="s">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>21</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L19" s="3"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L20" s="3"/>
+      <c r="A20" s="3" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="L21" s="3"/>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
         <v>171</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C23" t="s">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
         <v>172</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
         <v>133</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B25" s="1">
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B30" s="1">
         <v>1</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C30" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
         <v>207</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B33" s="1">
+        <v>3</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B28" s="1">
-        <v>3</v>
-      </c>
-      <c r="C28" s="1" t="s">
+      <c r="L33" s="3"/>
+      <c r="Q33" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>202</v>
+      </c>
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>203</v>
+      </c>
+      <c r="J35" s="3"/>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>204</v>
+      </c>
+      <c r="J36" s="3"/>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="J37" s="3"/>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>205</v>
+      </c>
+      <c r="J38" s="3"/>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+      <c r="J39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="J40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B41" s="1">
+        <v>4</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C29" t="s">
-        <v>203</v>
-      </c>
-      <c r="J29" s="3"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C30" t="s">
-        <v>204</v>
-      </c>
-      <c r="J30" s="3"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C31" t="s">
-        <v>205</v>
-      </c>
-      <c r="J31" s="3"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C32" t="s">
-        <v>4</v>
-      </c>
-      <c r="J32" s="3"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D33" t="s">
-        <v>206</v>
-      </c>
-      <c r="J33" s="3"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C34" t="s">
+      <c r="J41" s="3"/>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
+        <v>197</v>
+      </c>
+      <c r="J42" s="3"/>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
+        <v>198</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B45" s="1">
+        <v>5</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C54" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C58" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C60" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C61" t="s">
+        <v>99</v>
+      </c>
+      <c r="M61" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C63" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C64" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="66" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C66" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="68" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C68" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="69" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C69" t="s">
+        <v>104</v>
+      </c>
+      <c r="M69" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="70" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C70" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="71" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C71" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="72" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C72" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="74" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C74" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="75" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C75" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="76" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C76" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C78" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="79" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C79" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D80" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="81" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D81" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="82" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D82" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="83" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C83" t="s">
         <v>9</v>
       </c>
-      <c r="J34" s="3"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="J35" s="3"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B36" s="1">
-        <v>4</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="J36" s="3"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C37" t="s">
-        <v>198</v>
-      </c>
-      <c r="J37" s="3"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C38" t="s">
-        <v>199</v>
-      </c>
-      <c r="L38" s="3"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B40" s="1">
-        <v>5</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L44" s="3"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C49" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C53" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C55" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C56" t="s">
-        <v>99</v>
-      </c>
-      <c r="M56" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C58" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C59" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C61" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C63" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C64" t="s">
-        <v>104</v>
-      </c>
-      <c r="M64" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C65" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C66" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C67" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C69" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C70" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C71" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C73" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C74" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D75" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D76" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D77" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C78" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C80" t="s">
+    </row>
+    <row r="85" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C85" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C81" t="s">
+    <row r="86" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C86" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3139,10 +3712,311 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE274AE-A11A-49A6-B363-172A2145AB4A}">
+  <dimension ref="A4:D52"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="L43" sqref="L43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="2">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="1">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="1">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B17" s="1">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B22" s="2">
+        <v>2</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C25" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C27" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D47" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D48" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D49" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D50" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C51" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A84F647-1632-422E-9AD8-4143F640A76F}">
   <dimension ref="A2:N77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
@@ -3259,7 +4133,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -3405,7 +4279,7 @@
         <v>124</v>
       </c>
       <c r="N64" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
@@ -3418,7 +4292,7 @@
         <v>126</v>
       </c>
       <c r="N67" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
@@ -3448,12 +4322,12 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -3462,7 +4336,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56FC4E94-74D1-4636-BA5E-37887B014E96}">
   <dimension ref="B3:D16"/>
   <sheetViews>
@@ -3482,7 +4356,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D5" s="2"/>
     </row>
@@ -3491,7 +4365,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D6" s="2"/>
     </row>
@@ -3500,7 +4374,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D7" s="2"/>
     </row>
@@ -3509,7 +4383,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D8" s="2"/>
     </row>
@@ -3551,116 +4425,6 @@
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75DBD6BB-303A-4FA5-8EFB-3E783E0B3792}">
-  <dimension ref="B4:P29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P36" sqref="P36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C11" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D13" t="s">
-        <v>147</v>
-      </c>
-      <c r="E13" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C14" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C18" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="D20" t="s">
-        <v>148</v>
-      </c>
-      <c r="E20" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C21" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C23" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C25" t="s">
-        <v>98</v>
-      </c>
-      <c r="P25" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C26" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C28" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C29" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>
